--- a/Template+SEO+analysis.xlsx
+++ b/Template+SEO+analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gavri\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Proect4\Project4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088F6E4B-3284-4016-81C3-C3FB3FF7EB67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081149D6-BE96-47AB-8CA8-5F41253E922A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19090" windowHeight="10110" xr2:uid="{F4D0CAC2-2123-1946-879C-AB8072365C64}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F4D0CAC2-2123-1946-879C-AB8072365C64}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="106">
   <si>
     <t>Explanation</t>
   </si>
@@ -328,13 +328,81 @@
   </si>
   <si>
     <t>https://gtmetrix.com/analyze.html,  https://developers.google.com/web/tools/chrome-devtools/speed/get-started</t>
+  </si>
+  <si>
+    <t>Home Page Footer</t>
+  </si>
+  <si>
+    <t>Fixed broken links</t>
+  </si>
+  <si>
+    <t>The footer isn't the same footer we use on the homepage</t>
+  </si>
+  <si>
+    <t>added all links to footer</t>
+  </si>
+  <si>
+    <r>
+      <t>href="</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>car.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" should be href="</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.car.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>".</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Home Page </t>
+  </si>
+  <si>
+    <t>There's no "Scroll To Top" right-bottom button as the "Contact" page</t>
+  </si>
+  <si>
+    <t>"Scroll To Top" right-bottom button added to the "Home" page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -362,6 +430,14 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -394,7 +470,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -404,6 +480,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -719,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21008D1C-867F-FF4D-8036-BD2682FF7900}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1249,6 +1326,57 @@
       </c>
       <c r="F26" s="4" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1279,5 +1407,6 @@
     <hyperlink ref="F2" r:id="rId24" display="https://gtmetrix.com/analyze.html" xr:uid="{3144F41A-3BB0-4091-BD14-AC460EF03AB5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId25"/>
 </worksheet>
 </file>